--- a/data/trans_dic/P55_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada</t>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>84,64%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>89,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89,84%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90,92%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,99; 96,03</t>
+          <t>90,59; 97,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 91,55</t>
+          <t>86,8; 96,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,09; 92,46</t>
+          <t>78,6; 89,44</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>83,85; 93,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86,26; 92,74</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>87,33; 93,94</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83,04%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,11; 95,2</t>
+          <t>87,62; 96,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,29; 92,62</t>
+          <t>80,38; 92,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,58; 93,43</t>
+          <t>86,98; 95,42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63,19; 87,02</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88,8; 94,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>73,77; 87,68</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>87,14%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>89,72%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,3; 94,38</t>
+          <t>31,35; 96,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,01; 91,86</t>
+          <t>70,46; 96,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,38; 91,38</t>
+          <t>73,39; 94,97</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77,3; 97,27</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 92,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78,66; 94,59</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>87,64%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85,65%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89,71%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>87,56%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,644 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,59; 93,85</t>
+          <t>83,24; 95,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,77; 90,62</t>
+          <t>85,41; 92,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,56; 91,65</t>
+          <t>84,54; 90,65</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78,58; 89,44</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85,82; 92,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83,43; 90,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,19%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>360848</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>467064</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>336943</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>503604</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>697791</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>970668</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>343007; 370471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>440269; 487502</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>312887; 356032</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>469844; 526021</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>669989; 720327</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>932335; 1002845</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>298227</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>353350</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>302278</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>336219</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>600504</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>689569</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>280362; 309257</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>325405; 374548</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>287737; 315681</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>268907; 370304</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>577896; 616686</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>612555; 728093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61163</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>103651</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>99902</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>133099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>203553</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26834; 82704</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84131; 114950</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60586; 78402</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86071; 108313</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91599; 155123</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>181506; 218257</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>720238</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>924065</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>711157</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>939725</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1431395</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1863790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>652764; 748437</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>881018; 956050</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>685981; 735554</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>862157; 981287</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1369295; 1469117</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1775882; 1919093</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>